--- a/medicine/Enfance/Cécile_Gagnon/Cécile_Gagnon.xlsx
+++ b/medicine/Enfance/Cécile_Gagnon/Cécile_Gagnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gagnon</t>
+          <t>Cécile_Gagnon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Gagnon est une auteure et illustratrice de contes pour enfants canadienne née à Québec, le 7 janvier 1936.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gagnon</t>
+          <t>Cécile_Gagnon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie la littérature à l'Université Laval puis les arts graphiques à l'université de Boston et à l'École nationale supérieure des arts décoratifs de Paris ainsi que l'éducation artistique à l'Université Concordia. 
-Elle est rédactrice en chef des Cahiers Passe-partout au ministère de l'Éducation et responsable au Montréal-Matin du journal pour enfants Safari de 1971 à 1973. Elle a aussi cofondé, en 1978, Lurelu, la seule revue québécoise consacré à la littérature jeunesse, ainsi que l'Association des écrivaines et des écrivains québécois pour la jeunesse en 1992[1]. 
-Le prix Cécile-Gagnon, créé en son honneur en 1997, est décerné chaque année aux auteurs d'un premier livre jeunesse, ainsi qu'aux trois ans au texte d'un album[2].
-Le fonds d'archives de Cécile Gagnon est conservé aux Bibliothèque et Archives nationales du Québec de Montréal[3].
+Elle est rédactrice en chef des Cahiers Passe-partout au ministère de l'Éducation et responsable au Montréal-Matin du journal pour enfants Safari de 1971 à 1973. Elle a aussi cofondé, en 1978, Lurelu, la seule revue québécoise consacré à la littérature jeunesse, ainsi que l'Association des écrivaines et des écrivains québécois pour la jeunesse en 1992. 
+Le prix Cécile-Gagnon, créé en son honneur en 1997, est décerné chaque année aux auteurs d'un premier livre jeunesse, ainsi qu'aux trois ans au texte d'un album.
+Le fonds d'archives de Cécile Gagnon est conservé aux Bibliothèque et Archives nationales du Québec de Montréal.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Gagnon</t>
+          <t>Cécile_Gagnon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-La Pêche à l'horizon, Éditions du Pélican, 1961.
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Pêche à l'horizon, Éditions du Pélican, 1961.
 Martine-aux-oiseaux, Éditions du Pélican, 1964.
 Le Voyage d'un cerf-volant, Éditions Héritage, Collection Brindille, 1972.
 Le voilier et la lune, Éditions Héritage, Collection Brindille, 1972.
@@ -583,9 +602,43 @@
 Bonjour l'Arbre, Éditions du Raton Laveur, 1985.
 J'ai chaud !, Éditions du Raton Laveur, 1986.
 Le nouveau logis, Éditions du Raton Laveur, 1988.
-Doux avec des étoiles, Collection Cœur de pomme, Éditions Pierre Tisseyre, 1988.
-Publication qui s'est vue discerner un prix ou une mention
-J'ai faim!, Éditions du Raton Laveur, 1986.
+Doux avec des étoiles, Collection Cœur de pomme, Éditions Pierre Tisseyre, 1988.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication qui s'est vue discerner un prix ou une mention</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J'ai faim!, Éditions du Raton Laveur, 1986.
 L'ascenseur d'Adrien, Collection Libellule, Éditions Héritage, 1986.
 Le lutin sans nom, Éditions Passe-Partout, MEQ, 1986.
 Les Cachemires, Éditions Passe-Partout, MEQ, 1986.
@@ -631,34 +684,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Gagnon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication qui s'est mérité un prix ou une mention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Collectifs
-Entre voisins..., AÉQJ, Ed. Pierre Tisseyre, coll. Conquêtes, 1997
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre voisins..., AÉQJ, Ed. Pierre Tisseyre, coll. Conquêtes, 1997
 Peurs sauvages, AÉQJ, Ed. Pierre Tisseyre, 1998
 Les contes du calendrier, AÉQJ, Ed Pierre Tisseyre, 1999
 Petites malices et grosses bêtises, AÉQJ, Ed Pierre Tisseyre, 2001
@@ -692,21 +750,169 @@
 Clémentine clin d'œil, illustré par Anne-Marie Robain, collection Pagivores, Casterman, Tournai et Paris, 1991 (épuisé)
 Six cailloux blancs sur un fil, Albin Michel, Paris, coll. Petits contes de sagesse, 1997
 C'est ici, mon pays, roman, Castor poche, Flammarion, Paris, 1999
-Une veste pour rêver, collection: les petits contes de Mimi Barthélemy, illustrations Élodie Barthélemy, éditions Vents d'ailleurs, France, 2002
-Recueils
-Mille Ans de Contes Québec tome 1, Éditions Milan, Toulouse, 1996
+Une veste pour rêver, collection: les petits contes de Mimi Barthélemy, illustrations Élodie Barthélemy, éditions Vents d'ailleurs, France, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publication qui s'est mérité un prix ou une mention</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mille Ans de Contes Québec tome 1, Éditions Milan, Toulouse, 1996
 Contes traditionnels du Québec, Ed. Milan, Toulouse, 1998
-Mille Ans de Contes Québec tome 2 et 3, Éditions Milan, Toulouse, 2001 et 2007
-Pour adultes
-Montréal des écrivains, (recueil collectif), l'Hexagone, 1990
+Mille Ans de Contes Québec tome 2 et 3, Éditions Milan, Toulouse, 2001 et 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publication qui s'est mérité un prix ou une mention</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pour adultes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Montréal des écrivains, (recueil collectif), l'Hexagone, 1990
 Le chemin Kénogami, roman, Éd. Québec-Amérique, coll. Deux continents, 1994
-Un arbre devant ma porte, roman, Éd. Québec-Amérique, 1999
-Théâtre
-Jules Tempête, produit par le Théâtre de l'œil, 1993
+Un arbre devant ma porte, roman, Éd. Québec-Amérique, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publication qui s'est mérité un prix ou une mention</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jules Tempête, produit par le Théâtre de l'œil, 1993
 Le pays du Septdouze, écrit avec des enfants d'une école de France, 1992
-Cœurs battants, écrit avec des enfants d'une école d'Italie, 1993
-Œuvres traduites
-Snowfeather, James Lorimer, Toronto
+Cœurs battants, écrit avec des enfants d'une école d'Italie, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publication qui s'est mérité un prix ou une mention</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Œuvres traduites</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Snowfeather, James Lorimer, Toronto
 Una barba d'oro, Edizioni Il capitello, Torino, Italia
 Hello, tree, McClelland and Stewart, Toronto, 1988
 I'm hot, McClelland and Stewart, Toronto, 1988
@@ -719,31 +925,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%A9cile_Gagnon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cécile_Gagnon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Gagnon</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1962 - Prix du Grand Jury des Lettres, La Pêche à l'horizon.
 1964 - Prix du Mérite de la Foire internationale du livre de Leipzing, Ô Canada!.
@@ -752,7 +960,7 @@
 1985 - Prix ACELF Raymond-Beauchemin, Où ça mène le progrès ?.
 1988 - Finaliste au Prix du Gouverneur général, Châteaux de sable.
 2001 - Finaliste au Prix du Gouverneur général, Le chien de Pavel.
-2012 - Récipiendaire du prix Raymond-Plante[4] pour l'ensemble de son œuvre[5].</t>
+2012 - Récipiendaire du prix Raymond-Plante pour l'ensemble de son œuvre.</t>
         </is>
       </c>
     </row>
